--- a/NEW_data_files/occupation_salary_2.xlsx
+++ b/NEW_data_files/occupation_salary_2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ronda\Desktop\Automation Jobs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C40F47A3-AD72-4922-A897-890084EA852E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD29EFD3-35A8-4406-9EB5-C821746BCC45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4298,33 +4298,6 @@
     <t>Watch and Clock Repairers</t>
   </si>
   <si>
-    <t>Helpers–Brickmasons, Blockmasons, Stonemasons, and Tile and Marble Setters</t>
-  </si>
-  <si>
-    <t>Helpers–Carpenters</t>
-  </si>
-  <si>
-    <t>Helpers–Electricians</t>
-  </si>
-  <si>
-    <t>Helpers–Extraction Workers</t>
-  </si>
-  <si>
-    <t>Helpers–Installation, Maintenance, and Repair Workers</t>
-  </si>
-  <si>
-    <t>Helpers–Painters, Paperhangers, Plasterers, and Stucco Masons</t>
-  </si>
-  <si>
-    <t>Helpers–Pipelayers, Plumbers, Pipefitters, and Steamfitters</t>
-  </si>
-  <si>
-    <t>Helpers–Production Workers</t>
-  </si>
-  <si>
-    <t>Helpers–Roofers</t>
-  </si>
-  <si>
     <t>11-3012</t>
   </si>
   <si>
@@ -4416,6 +4389,33 @@
   </si>
   <si>
     <t>25-9044</t>
+  </si>
+  <si>
+    <t>Helpers--Brickmasons, Blockmasons, Stonemasons, and Tile and Marble Setters</t>
+  </si>
+  <si>
+    <t>Helpers--Carpenters</t>
+  </si>
+  <si>
+    <t>Helpers--Electricians</t>
+  </si>
+  <si>
+    <t>Helpers--Extraction Workers</t>
+  </si>
+  <si>
+    <t>Helpers--Installation, Maintenance, and Repair Workers</t>
+  </si>
+  <si>
+    <t>Helpers--Painters, Paperhangers, Plasterers, and Stucco Masons</t>
+  </si>
+  <si>
+    <t>Helpers--Pipelayers, Plumbers, Pipefitters, and Steamfitters</t>
+  </si>
+  <si>
+    <t>Helpers--Production Workers</t>
+  </si>
+  <si>
+    <t>Helpers--Roofers</t>
   </si>
 </sst>
 </file>
@@ -5279,7 +5279,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
+      <selection pane="bottomLeft" activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5395,7 +5395,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>1429</v>
+        <v>1420</v>
       </c>
       <c r="B7" t="s">
         <v>16</v>
@@ -6772,7 +6772,7 @@
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>1430</v>
+        <v>1421</v>
       </c>
       <c r="B88" t="s">
         <v>1341</v>
@@ -7571,7 +7571,7 @@
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>1431</v>
+        <v>1422</v>
       </c>
       <c r="B135" t="s">
         <v>129</v>
@@ -9152,7 +9152,7 @@
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A228" s="3" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="B228" t="s">
         <v>1357</v>
@@ -9543,7 +9543,7 @@
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A251" s="3" t="s">
-        <v>1433</v>
+        <v>1424</v>
       </c>
       <c r="B251" t="s">
         <v>1363</v>
@@ -10291,7 +10291,7 @@
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A295" s="3" t="s">
-        <v>1434</v>
+        <v>1425</v>
       </c>
       <c r="B295" t="s">
         <v>1368</v>
@@ -10529,7 +10529,7 @@
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
-        <v>1435</v>
+        <v>1426</v>
       </c>
       <c r="B309" t="s">
         <v>1369</v>
@@ -10733,7 +10733,7 @@
     </row>
     <row r="321" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A321" s="3" t="s">
-        <v>1436</v>
+        <v>1427</v>
       </c>
       <c r="B321" t="s">
         <v>1376</v>
@@ -11005,7 +11005,7 @@
     </row>
     <row r="337" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
-        <v>1437</v>
+        <v>1428</v>
       </c>
       <c r="B337" t="s">
         <v>549</v>
@@ -11039,7 +11039,7 @@
     </row>
     <row r="339" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
-        <v>1438</v>
+        <v>1429</v>
       </c>
       <c r="B339" t="s">
         <v>556</v>
@@ -11073,7 +11073,7 @@
     </row>
     <row r="341" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
-        <v>1439</v>
+        <v>1430</v>
       </c>
       <c r="B341" t="s">
         <v>582</v>
@@ -11144,7 +11144,7 @@
         <v>929</v>
       </c>
       <c r="B345" t="s">
-        <v>1420</v>
+        <v>1451</v>
       </c>
       <c r="C345" s="2" t="s">
         <v>7</v>
@@ -11161,7 +11161,7 @@
         <v>930</v>
       </c>
       <c r="B346" t="s">
-        <v>1421</v>
+        <v>1452</v>
       </c>
       <c r="C346" s="2" t="s">
         <v>7</v>
@@ -11178,7 +11178,7 @@
         <v>931</v>
       </c>
       <c r="B347" t="s">
-        <v>1422</v>
+        <v>1453</v>
       </c>
       <c r="C347" s="2" t="s">
         <v>7</v>
@@ -11195,7 +11195,7 @@
         <v>965</v>
       </c>
       <c r="B348" t="s">
-        <v>1423</v>
+        <v>1454</v>
       </c>
       <c r="C348" s="2" t="s">
         <v>7</v>
@@ -11212,7 +11212,7 @@
         <v>1056</v>
       </c>
       <c r="B349" t="s">
-        <v>1424</v>
+        <v>1455</v>
       </c>
       <c r="C349" s="2" t="s">
         <v>7</v>
@@ -11229,7 +11229,7 @@
         <v>932</v>
       </c>
       <c r="B350" t="s">
-        <v>1425</v>
+        <v>1456</v>
       </c>
       <c r="C350" s="2" t="s">
         <v>7</v>
@@ -11246,7 +11246,7 @@
         <v>933</v>
       </c>
       <c r="B351" t="s">
-        <v>1426</v>
+        <v>1457</v>
       </c>
       <c r="C351" s="2" t="s">
         <v>7</v>
@@ -11263,7 +11263,7 @@
         <v>1249</v>
       </c>
       <c r="B352" t="s">
-        <v>1427</v>
+        <v>1458</v>
       </c>
       <c r="C352" s="2" t="s">
         <v>7</v>
@@ -11280,7 +11280,7 @@
         <v>934</v>
       </c>
       <c r="B353" t="s">
-        <v>1428</v>
+        <v>1459</v>
       </c>
       <c r="C353" s="2" t="s">
         <v>7</v>
@@ -11464,7 +11464,7 @@
     </row>
     <row r="364" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
-        <v>1440</v>
+        <v>1431</v>
       </c>
       <c r="B364" t="s">
         <v>74</v>
@@ -11617,7 +11617,7 @@
     </row>
     <row r="373" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
-        <v>1441</v>
+        <v>1432</v>
       </c>
       <c r="B373" t="s">
         <v>119</v>
@@ -11651,7 +11651,7 @@
     </row>
     <row r="375" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
-        <v>1442</v>
+        <v>1433</v>
       </c>
       <c r="B375" t="s">
         <v>1057</v>
@@ -12892,7 +12892,7 @@
     </row>
     <row r="448" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A448" s="3" t="s">
-        <v>1443</v>
+        <v>1434</v>
       </c>
       <c r="B448" t="s">
         <v>1388</v>
@@ -13453,7 +13453,7 @@
     </row>
     <row r="481" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A481" s="3" t="s">
-        <v>1444</v>
+        <v>1435</v>
       </c>
       <c r="B481" t="s">
         <v>1391</v>
@@ -13589,7 +13589,7 @@
     </row>
     <row r="489" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A489" s="3" t="s">
-        <v>1445</v>
+        <v>1436</v>
       </c>
       <c r="B489" t="s">
         <v>497</v>
@@ -13861,7 +13861,7 @@
     </row>
     <row r="505" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A505" s="3" t="s">
-        <v>1446</v>
+        <v>1437</v>
       </c>
       <c r="B505" t="s">
         <v>1393</v>
@@ -14031,7 +14031,7 @@
     </row>
     <row r="515" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A515" s="3" t="s">
-        <v>1447</v>
+        <v>1438</v>
       </c>
       <c r="B515" t="s">
         <v>1394</v>
@@ -14167,7 +14167,7 @@
     </row>
     <row r="523" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A523" s="3" t="s">
-        <v>1448</v>
+        <v>1439</v>
       </c>
       <c r="B523" t="s">
         <v>1396</v>
@@ -14184,7 +14184,7 @@
     </row>
     <row r="524" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A524" s="3" t="s">
-        <v>1449</v>
+        <v>1440</v>
       </c>
       <c r="B524" t="s">
         <v>498</v>
@@ -14490,7 +14490,7 @@
     </row>
     <row r="542" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A542" s="3" t="s">
-        <v>1450</v>
+        <v>1441</v>
       </c>
       <c r="B542" t="s">
         <v>1397</v>
@@ -14507,7 +14507,7 @@
     </row>
     <row r="543" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A543" s="3" t="s">
-        <v>1451</v>
+        <v>1442</v>
       </c>
       <c r="B543" t="s">
         <v>1398</v>
@@ -15017,7 +15017,7 @@
     </row>
     <row r="573" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A573" t="s">
-        <v>1452</v>
+        <v>1443</v>
       </c>
       <c r="B573" t="s">
         <v>1250</v>
@@ -15187,7 +15187,7 @@
     </row>
     <row r="583" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A583" s="3" t="s">
-        <v>1453</v>
+        <v>1444</v>
       </c>
       <c r="B583" t="s">
         <v>1402</v>
@@ -15272,7 +15272,7 @@
     </row>
     <row r="588" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A588" t="s">
-        <v>1454</v>
+        <v>1445</v>
       </c>
       <c r="B588" t="s">
         <v>1403</v>
@@ -15527,7 +15527,7 @@
     </row>
     <row r="603" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A603" t="s">
-        <v>1455</v>
+        <v>1446</v>
       </c>
       <c r="B603" t="s">
         <v>517</v>
@@ -16649,7 +16649,7 @@
     </row>
     <row r="669" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A669" s="3" t="s">
-        <v>1456</v>
+        <v>1447</v>
       </c>
       <c r="B669" t="s">
         <v>1413</v>
@@ -16853,7 +16853,7 @@
     </row>
     <row r="681" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A681" t="s">
-        <v>1457</v>
+        <v>1448</v>
       </c>
       <c r="B681" t="s">
         <v>1415</v>
@@ -16870,7 +16870,7 @@
     </row>
     <row r="682" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A682" s="3" t="s">
-        <v>1458</v>
+        <v>1449</v>
       </c>
       <c r="B682" s="4" t="s">
         <v>1416</v>
@@ -16887,7 +16887,7 @@
     </row>
     <row r="683" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A683" s="3" t="s">
-        <v>1459</v>
+        <v>1450</v>
       </c>
       <c r="B683" s="4" t="s">
         <v>1417</v>
@@ -17669,5 +17669,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>